--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H2">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>52.83926583156371</v>
+        <v>61.9442646948221</v>
       </c>
       <c r="R2">
-        <v>52.83926583156371</v>
+        <v>557.498382253399</v>
       </c>
       <c r="S2">
-        <v>0.03274872864197681</v>
+        <v>0.02090678169092003</v>
       </c>
       <c r="T2">
-        <v>0.03274872864197681</v>
+        <v>0.02090678169092003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H3">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>27.12973632132242</v>
+        <v>31.15178269536577</v>
       </c>
       <c r="R3">
-        <v>27.12973632132242</v>
+        <v>280.366044258292</v>
       </c>
       <c r="S3">
-        <v>0.01681447232343344</v>
+        <v>0.0105140245558429</v>
       </c>
       <c r="T3">
-        <v>0.01681447232343344</v>
+        <v>0.01051402455584291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H4">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>24.06538634824756</v>
+        <v>29.82901169675678</v>
       </c>
       <c r="R4">
-        <v>24.06538634824756</v>
+        <v>268.461105270811</v>
       </c>
       <c r="S4">
-        <v>0.01491524900620992</v>
+        <v>0.01006757669450748</v>
       </c>
       <c r="T4">
-        <v>0.01491524900620992</v>
+        <v>0.01006757669450749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H5">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>6.369113731328975</v>
+        <v>10.08200213763445</v>
       </c>
       <c r="R5">
-        <v>6.369113731328975</v>
+        <v>90.73801923871001</v>
       </c>
       <c r="S5">
-        <v>0.003947450328739897</v>
+        <v>0.003402772132938589</v>
       </c>
       <c r="T5">
-        <v>0.003947450328739897</v>
+        <v>0.003402772132938589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H6">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>502.3591071364959</v>
+        <v>534.8892708202409</v>
       </c>
       <c r="R6">
-        <v>502.3591071364959</v>
+        <v>4814.003437382167</v>
       </c>
       <c r="S6">
-        <v>0.3113522078993655</v>
+        <v>0.1805302439047104</v>
       </c>
       <c r="T6">
-        <v>0.3113522078993655</v>
+        <v>0.1805302439047104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H7">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>257.9307244478564</v>
+        <v>268.9959177458382</v>
       </c>
       <c r="R7">
-        <v>257.9307244478564</v>
+        <v>2420.963259712544</v>
       </c>
       <c r="S7">
-        <v>0.1598603457189891</v>
+        <v>0.09078869457515754</v>
       </c>
       <c r="T7">
-        <v>0.1598603457189891</v>
+        <v>0.09078869457515755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H8">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>228.7970093554703</v>
+        <v>257.5737785309502</v>
       </c>
       <c r="R8">
-        <v>228.7970093554703</v>
+        <v>2318.164006778552</v>
       </c>
       <c r="S8">
-        <v>0.1418038471117869</v>
+        <v>0.08693361336327385</v>
       </c>
       <c r="T8">
-        <v>0.1418038471117869</v>
+        <v>0.08693361336327385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H9">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>60.55311778026141</v>
+        <v>87.05817719163556</v>
       </c>
       <c r="R9">
-        <v>60.55311778026141</v>
+        <v>783.5235947247199</v>
       </c>
       <c r="S9">
-        <v>0.03752962103850557</v>
+        <v>0.02938296731621547</v>
       </c>
       <c r="T9">
-        <v>0.03752962103850557</v>
+        <v>0.02938296731621547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H10">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>217.0131083514731</v>
+        <v>9.444036429695444</v>
       </c>
       <c r="R10">
-        <v>217.0131083514731</v>
+        <v>84.996327867259</v>
       </c>
       <c r="S10">
-        <v>0.1345004190597397</v>
+        <v>0.003187452605813928</v>
       </c>
       <c r="T10">
-        <v>0.1345004190597397</v>
+        <v>0.003187452605813928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H11">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>111.4229790136318</v>
+        <v>4.74940774701911</v>
       </c>
       <c r="R11">
-        <v>111.4229790136318</v>
+        <v>42.744669723172</v>
       </c>
       <c r="S11">
-        <v>0.06905775178311403</v>
+        <v>0.00160297053193357</v>
       </c>
       <c r="T11">
-        <v>0.06905775178311403</v>
+        <v>0.00160297053193357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H12">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>98.8375635604049</v>
+        <v>4.547737785150111</v>
       </c>
       <c r="R12">
-        <v>98.8375635604049</v>
+        <v>40.929640066351</v>
       </c>
       <c r="S12">
-        <v>0.06125756097732</v>
+        <v>0.001534904991286935</v>
       </c>
       <c r="T12">
-        <v>0.06125756097732</v>
+        <v>0.001534904991286935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.240007</v>
+      </c>
+      <c r="I13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="J13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N13">
+        <v>57.63973</v>
+      </c>
+      <c r="O13">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P13">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q13">
+        <v>1.537104297567778</v>
+      </c>
+      <c r="R13">
+        <v>13.83393867811</v>
+      </c>
+      <c r="S13">
+        <v>0.0005187873993459596</v>
+      </c>
+      <c r="T13">
+        <v>0.0005187873993459597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.553315</v>
+      </c>
+      <c r="H14">
+        <v>19.659945</v>
+      </c>
+      <c r="I14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>118.0470123333333</v>
+      </c>
+      <c r="N14">
+        <v>354.141037</v>
+      </c>
+      <c r="O14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="P14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="Q14">
+        <v>773.5992566292183</v>
+      </c>
+      <c r="R14">
+        <v>6962.393309662964</v>
+      </c>
+      <c r="S14">
+        <v>0.2610971468349194</v>
+      </c>
+      <c r="T14">
+        <v>0.2610971468349195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.553315</v>
+      </c>
+      <c r="H15">
+        <v>19.659945</v>
+      </c>
+      <c r="I15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N15">
+        <v>178.097596</v>
+      </c>
+      <c r="O15">
+        <v>0.2342114953037475</v>
+      </c>
+      <c r="P15">
+        <v>0.2342114953037476</v>
+      </c>
+      <c r="Q15">
+        <v>389.0432157769133</v>
+      </c>
+      <c r="R15">
+        <v>3501.38894199222</v>
+      </c>
+      <c r="S15">
+        <v>0.1313058056408135</v>
+      </c>
+      <c r="T15">
+        <v>0.1313058056408136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="H13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="I13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="J13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="N13">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="O13">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="P13">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="Q13">
-        <v>26.15822053027276</v>
-      </c>
-      <c r="R13">
-        <v>26.15822053027276</v>
-      </c>
-      <c r="S13">
-        <v>0.01621234611081911</v>
-      </c>
-      <c r="T13">
-        <v>0.01621234611081911</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.553315</v>
+      </c>
+      <c r="H16">
+        <v>19.659945</v>
+      </c>
+      <c r="I16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.84506433333333</v>
+      </c>
+      <c r="N16">
+        <v>170.535193</v>
+      </c>
+      <c r="O16">
+        <v>0.2242663767030476</v>
+      </c>
+      <c r="P16">
+        <v>0.2242663767030477</v>
+      </c>
+      <c r="Q16">
+        <v>372.5236127715984</v>
+      </c>
+      <c r="R16">
+        <v>3352.712514944385</v>
+      </c>
+      <c r="S16">
+        <v>0.1257302816539794</v>
+      </c>
+      <c r="T16">
+        <v>0.1257302816539794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.553315</v>
+      </c>
+      <c r="H17">
+        <v>19.659945</v>
+      </c>
+      <c r="I17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N17">
+        <v>57.63973</v>
+      </c>
+      <c r="O17">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P17">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q17">
+        <v>125.9104357349834</v>
+      </c>
+      <c r="R17">
+        <v>1133.19392161485</v>
+      </c>
+      <c r="S17">
+        <v>0.04249597610834101</v>
+      </c>
+      <c r="T17">
+        <v>0.04249597610834102</v>
       </c>
     </row>
   </sheetData>
